--- a/teaching/traditional_assets/database/data/kuwait/kuwait_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/kuwait/kuwait_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.06560000000000001</v>
-      </c>
-      <c r="E2">
-        <v>-0.287</v>
+        <v>0.03</v>
       </c>
       <c r="G2">
-        <v>0.4120563684236522</v>
+        <v>0.5837725956868994</v>
       </c>
       <c r="H2">
-        <v>0.4120563684236522</v>
+        <v>0.5837725956868994</v>
       </c>
       <c r="I2">
-        <v>0.3103495803425701</v>
+        <v>0.1907184414751671</v>
       </c>
       <c r="J2">
-        <v>0.2995145137464253</v>
+        <v>0.1904249629922308</v>
       </c>
       <c r="K2">
-        <v>128.505</v>
+        <v>-130.827</v>
       </c>
       <c r="L2">
-        <v>0.4882464465780385</v>
+        <v>-0.6168233552414449</v>
       </c>
       <c r="M2">
-        <v>32.982</v>
+        <v>43.501</v>
       </c>
       <c r="N2">
-        <v>0.02360747262185957</v>
+        <v>0.03056133202191934</v>
       </c>
       <c r="O2">
-        <v>0.2566592739582118</v>
+        <v>-0.3325078156649621</v>
       </c>
       <c r="P2">
-        <v>29.941</v>
+        <v>33.519</v>
       </c>
       <c r="Q2">
-        <v>0.02143082098632882</v>
+        <v>0.02354854573556273</v>
       </c>
       <c r="R2">
-        <v>0.2329948251040816</v>
+        <v>-0.2562085807975418</v>
       </c>
       <c r="S2">
-        <v>3.041</v>
+        <v>9.981999999999999</v>
       </c>
       <c r="T2">
-        <v>0.09220180704626767</v>
+        <v>0.2294659892876026</v>
       </c>
       <c r="U2">
-        <v>378.642</v>
+        <v>333.465</v>
       </c>
       <c r="V2">
-        <v>0.2710199699377281</v>
+        <v>0.2342735703245749</v>
       </c>
       <c r="W2">
-        <v>0.003156612521753258</v>
+        <v>-0.02084673309487731</v>
       </c>
       <c r="X2">
-        <v>0.05356264028853226</v>
+        <v>0.04204868440835072</v>
       </c>
       <c r="Y2">
-        <v>-0.05040602776677901</v>
+        <v>-0.06289541750322804</v>
       </c>
       <c r="Z2">
-        <v>0.08291963338047115</v>
+        <v>0.06913373086418305</v>
       </c>
       <c r="AA2">
-        <v>-0.001693721740419539</v>
+        <v>-0.004325334004516105</v>
       </c>
       <c r="AB2">
-        <v>0.05107302874621231</v>
+        <v>0.03983733183576885</v>
       </c>
       <c r="AC2">
-        <v>-0.05325426266689273</v>
+        <v>-0.04596155800444658</v>
       </c>
       <c r="AD2">
-        <v>761.788</v>
+        <v>690.2669999999999</v>
       </c>
       <c r="AE2">
-        <v>33.29960751288289</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>795.0876075128829</v>
+        <v>690.2669999999999</v>
       </c>
       <c r="AG2">
-        <v>416.4456075128829</v>
+        <v>356.802</v>
       </c>
       <c r="AH2">
-        <v>0.362691406879605</v>
+        <v>0.3265732019282129</v>
       </c>
       <c r="AI2">
-        <v>0.2067854798697732</v>
+        <v>0.200358066822305</v>
       </c>
       <c r="AJ2">
-        <v>0.2296306229011804</v>
+        <v>0.2004278166185635</v>
       </c>
       <c r="AK2">
-        <v>0.1201396671498328</v>
+        <v>0.1146645790631622</v>
       </c>
       <c r="AL2">
-        <v>32.458</v>
+        <v>27.458</v>
       </c>
       <c r="AM2">
-        <v>31.295</v>
+        <v>27.458</v>
       </c>
       <c r="AN2">
-        <v>8.075348492076113</v>
+        <v>12.8445664309639</v>
       </c>
       <c r="AO2">
-        <v>2.631862714893093</v>
+        <v>1.473195425741132</v>
       </c>
       <c r="AP2">
-        <v>4.414539752084411</v>
+        <v>6.639411983624861</v>
       </c>
       <c r="AQ2">
-        <v>2.729669276242211</v>
+        <v>1.473195425741132</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Al-Deera Holding Company K.P.S.C. (KWSE:ALDEERA)</t>
+          <t>Al Madina for Finance and Investment Company - K.S.C.P. (KWSE:ALMADINA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,26 +721,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.36</v>
-      </c>
       <c r="G3">
-        <v>0.8922651933701657</v>
+        <v>-0.4621794871794872</v>
       </c>
       <c r="H3">
-        <v>0.8922651933701657</v>
+        <v>-0.4621794871794872</v>
       </c>
       <c r="I3">
-        <v>0.9972375690607734</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="J3">
-        <v>0.9893386576226683</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="K3">
-        <v>2.27</v>
+        <v>12</v>
       </c>
       <c r="L3">
-        <v>0.6270718232044199</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,67 +761,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.112</v>
+        <v>0.843</v>
       </c>
       <c r="V3">
-        <v>0.008615384615384615</v>
+        <v>0.0411219512195122</v>
       </c>
       <c r="W3">
-        <v>0.1129353233830846</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="X3">
-        <v>0.05045015326463245</v>
+        <v>0.04775726172772542</v>
       </c>
       <c r="Y3">
-        <v>0.06248517011845212</v>
+        <v>0.2413993647782987</v>
       </c>
       <c r="Z3">
-        <v>0.1828559882810527</v>
+        <v>0.3199343724364233</v>
       </c>
       <c r="AA3">
-        <v>0.180906497984243</v>
+        <v>0.2296964725184577</v>
       </c>
       <c r="AB3">
-        <v>0.05045015326463245</v>
+        <v>0.04246199338124459</v>
       </c>
       <c r="AC3">
-        <v>0.1304563447196106</v>
+        <v>0.1872344791372131</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>7.12</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>7.12</v>
       </c>
       <c r="AG3">
-        <v>-0.112</v>
+        <v>6.277</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.2577842143374366</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.07346264960792406</v>
       </c>
       <c r="AJ3">
-        <v>-0.008690254500310366</v>
+        <v>0.2344175971916197</v>
       </c>
       <c r="AK3">
-        <v>-0.007005253940455341</v>
+        <v>0.06533301414490461</v>
       </c>
       <c r="AL3">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.59</v>
-      </c>
-      <c r="AO3">
-        <v>2.270440251572327</v>
-      </c>
-      <c r="AQ3">
-        <v>2.270440251572327</v>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0.6357142857142858</v>
+      </c>
+      <c r="AP3">
+        <v>0.5604464285714286</v>
       </c>
     </row>
     <row r="4">
@@ -847,121 +841,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.00236</v>
-      </c>
-      <c r="E4">
-        <v>0.302</v>
+        <v>0.03</v>
       </c>
       <c r="G4">
-        <v>0.5036958817317846</v>
+        <v>0.4955401387512388</v>
       </c>
       <c r="H4">
-        <v>0.5036958817317846</v>
+        <v>0.4955401387512388</v>
       </c>
       <c r="I4">
-        <v>0.4076029567053854</v>
+        <v>0.4717542120911793</v>
       </c>
       <c r="J4">
-        <v>0.4076029567053854</v>
+        <v>0.4701980358590864</v>
       </c>
       <c r="K4">
-        <v>72.7</v>
+        <v>37.6</v>
       </c>
       <c r="L4">
-        <v>0.7676874340021119</v>
+        <v>0.3726461843409316</v>
       </c>
       <c r="M4">
-        <v>6.03</v>
+        <v>9.52</v>
       </c>
       <c r="N4">
-        <v>0.03816455696202532</v>
+        <v>0.04313547802446761</v>
       </c>
       <c r="O4">
-        <v>0.08294360385144429</v>
+        <v>0.2531914893617021</v>
       </c>
       <c r="P4">
-        <v>6.03</v>
+        <v>7.56</v>
       </c>
       <c r="Q4">
-        <v>0.03816455696202532</v>
+        <v>0.0342546443135478</v>
       </c>
       <c r="R4">
-        <v>0.08294360385144429</v>
+        <v>0.201063829787234</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="U4">
-        <v>23.2</v>
+        <v>18.2</v>
       </c>
       <c r="V4">
-        <v>0.1468354430379747</v>
+        <v>0.08246488445854101</v>
       </c>
       <c r="W4">
-        <v>0.5024187975120941</v>
+        <v>0.2021505376344086</v>
       </c>
       <c r="X4">
-        <v>0.06647179038616126</v>
+        <v>0.04866604735433779</v>
       </c>
       <c r="Y4">
-        <v>0.4359470071259328</v>
+        <v>0.1534844902800708</v>
       </c>
       <c r="Z4">
-        <v>0.2498021630176734</v>
+        <v>0.3909337466098411</v>
       </c>
       <c r="AA4">
-        <v>0.1018201002374044</v>
+        <v>0.1838162798069811</v>
       </c>
       <c r="AB4">
-        <v>0.05494191927978816</v>
+        <v>0.04272208350035445</v>
       </c>
       <c r="AC4">
-        <v>0.04687818095761621</v>
+        <v>0.1410941963066266</v>
       </c>
       <c r="AD4">
-        <v>95.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>95.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="AG4">
-        <v>72.09999999999999</v>
+        <v>66.39999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.376233714962495</v>
+        <v>0.277104487389453</v>
       </c>
       <c r="AI4">
-        <v>0.3131777850805126</v>
+        <v>0.2688274547187798</v>
       </c>
       <c r="AJ4">
-        <v>0.313342025206432</v>
+        <v>0.2312783002438175</v>
       </c>
       <c r="AK4">
-        <v>0.2564923514763429</v>
+        <v>0.2239460370994941</v>
       </c>
       <c r="AL4">
-        <v>7.58</v>
+        <v>6.53</v>
       </c>
       <c r="AM4">
-        <v>7.159</v>
+        <v>6.53</v>
       </c>
       <c r="AN4">
-        <v>2.358910891089109</v>
+        <v>1.712550607287449</v>
       </c>
       <c r="AO4">
-        <v>5.092348284960423</v>
+        <v>7.289433384379786</v>
       </c>
       <c r="AP4">
-        <v>1.784653465346535</v>
+        <v>1.34412955465587</v>
       </c>
       <c r="AQ4">
-        <v>5.391814499231737</v>
+        <v>7.289433384379786</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +963,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Al Aman Investment Company - K.P.S.C. (KWSE:ALAMAN)</t>
+          <t>Al Salam Group Holding Company - K.S.C (Public) (KWSE:ALSALAM)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -980,104 +971,95 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.0883</v>
-      </c>
-      <c r="E5">
-        <v>-0.324</v>
-      </c>
       <c r="G5">
-        <v>0.1737142857142857</v>
+        <v>0.6133651551312648</v>
       </c>
       <c r="H5">
-        <v>0.1737142857142857</v>
+        <v>0.6133651551312648</v>
       </c>
       <c r="I5">
-        <v>0.1074285714285714</v>
+        <v>0.4391408114558472</v>
       </c>
       <c r="J5">
-        <v>0.1061871746031746</v>
+        <v>0.4391408114558472</v>
       </c>
       <c r="K5">
-        <v>2.49</v>
+        <v>0.274</v>
       </c>
       <c r="L5">
-        <v>0.1422857142857143</v>
+        <v>0.06539379474940334</v>
       </c>
       <c r="M5">
-        <v>0.207</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.007064846416382253</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.08313253012048193</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>0.013</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.0004436860068259385</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.005220883534136546</v>
+        <v>-0</v>
       </c>
       <c r="S5">
-        <v>0.194</v>
-      </c>
-      <c r="T5">
-        <v>0.9371980676328502</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>9.279999999999999</v>
+        <v>0.153</v>
       </c>
       <c r="V5">
-        <v>0.3167235494880546</v>
+        <v>0.006860986547085201</v>
       </c>
       <c r="W5">
-        <v>0.04519056261343013</v>
+        <v>0.00269155206286837</v>
       </c>
       <c r="X5">
-        <v>0.05353250626581975</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Y5">
-        <v>-0.008341943652389619</v>
+        <v>-0.03630014217554573</v>
       </c>
       <c r="Z5">
-        <v>0.6751543209876543</v>
+        <v>0.04618963103414064</v>
       </c>
       <c r="AA5">
-        <v>0.07169272976680383</v>
+        <v>0.02028375205317871</v>
       </c>
       <c r="AB5">
-        <v>0.05082537656641321</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AC5">
-        <v>0.02086735320039061</v>
+        <v>-0.01870794218523539</v>
       </c>
       <c r="AD5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>-5.879999999999999</v>
+        <v>-0.153</v>
       </c>
       <c r="AH5">
-        <v>0.1039755351681957</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.05723905723905724</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.251067463706234</v>
+        <v>-0.006908384882828373</v>
       </c>
       <c r="AK5">
-        <v>-0.1173184357541899</v>
+        <v>-0.001399215341984691</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1086,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1.531531531531531</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-2.648648648648648</v>
+        <v>-0.05563636363636364</v>
       </c>
     </row>
     <row r="6">
@@ -1100,7 +1082,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tamdeen Investment Company - KSCP (KWSE:TAMINV)</t>
+          <t>Kuwait Financial Centre - K.P.S.C (KWSE:MARKAZ)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1109,121 +1091,118 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.109</v>
-      </c>
-      <c r="E6">
-        <v>0.0602</v>
+        <v>0.227</v>
       </c>
       <c r="G6">
-        <v>0.7312186978297162</v>
+        <v>0.8738095238095239</v>
       </c>
       <c r="H6">
-        <v>0.7312186978297162</v>
+        <v>0.8738095238095239</v>
       </c>
       <c r="I6">
-        <v>0.9115191986644408</v>
+        <v>0.0869047619047619</v>
       </c>
       <c r="J6">
-        <v>0.9079440784541102</v>
+        <v>0.0869047619047619</v>
       </c>
       <c r="K6">
-        <v>33.3</v>
+        <v>-8.17</v>
       </c>
       <c r="L6">
-        <v>0.5559265442404007</v>
+        <v>-0.1945238095238095</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>7.21</v>
       </c>
       <c r="N6">
-        <v>0.03856041131105398</v>
+        <v>0.05499618611746759</v>
       </c>
       <c r="O6">
-        <v>0.4504504504504505</v>
+        <v>-0.8824969400244798</v>
       </c>
       <c r="P6">
-        <v>13.6</v>
+        <v>7.21</v>
       </c>
       <c r="Q6">
-        <v>0.03496143958868894</v>
+        <v>0.05499618611746759</v>
       </c>
       <c r="R6">
-        <v>0.4084084084084084</v>
+        <v>-0.8824969400244798</v>
       </c>
       <c r="S6">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.09333333333333335</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>129.2</v>
+        <v>34.9</v>
       </c>
       <c r="V6">
-        <v>0.332133676092545</v>
+        <v>0.2662090007627765</v>
       </c>
       <c r="W6">
-        <v>0.05267320468206263</v>
+        <v>-0.02696369636963696</v>
       </c>
       <c r="X6">
-        <v>0.07131103642399859</v>
+        <v>0.07603044081164249</v>
       </c>
       <c r="Y6">
-        <v>-0.01863783174193596</v>
+        <v>-0.1029941371812794</v>
       </c>
       <c r="Z6">
-        <v>0.07235173330112331</v>
+        <v>0.08442211055276382</v>
       </c>
       <c r="AA6">
-        <v>0.06569132781664597</v>
+        <v>0.007336683417085427</v>
       </c>
       <c r="AB6">
-        <v>0.05570183475419097</v>
+        <v>0.04366165036753461</v>
       </c>
       <c r="AC6">
-        <v>0.009989493062454995</v>
+        <v>-0.03632496695044918</v>
       </c>
       <c r="AD6">
-        <v>305.5</v>
+        <v>192.4</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>305.5</v>
+        <v>192.4</v>
       </c>
       <c r="AG6">
-        <v>176.3</v>
+        <v>157.5</v>
       </c>
       <c r="AH6">
-        <v>0.4398848092152628</v>
+        <v>0.5947449768160742</v>
       </c>
       <c r="AI6">
-        <v>0.265052923824397</v>
+        <v>0.3464169967590925</v>
       </c>
       <c r="AJ6">
-        <v>0.3118698036440828</v>
+        <v>0.5457380457380457</v>
       </c>
       <c r="AK6">
-        <v>0.1722689075630252</v>
+        <v>0.3025936599423631</v>
       </c>
       <c r="AL6">
-        <v>12.1</v>
+        <v>9.31</v>
       </c>
       <c r="AM6">
-        <v>12.1</v>
+        <v>9.31</v>
       </c>
       <c r="AN6">
-        <v>5.524412296564195</v>
+        <v>23.32121212121212</v>
       </c>
       <c r="AO6">
-        <v>4.512396694214877</v>
+        <v>0.3920515574650913</v>
       </c>
       <c r="AP6">
-        <v>3.188065099457505</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="AQ6">
-        <v>4.512396694214877</v>
+        <v>0.3920515574650913</v>
       </c>
     </row>
     <row r="7">
@@ -1234,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kuwait and Middle East Financial Investment Company K.S.C.P. (KWSE:KMEFIC)</t>
+          <t>Osoul Investment Company - K.S.C.P (KWSE:OSOUL)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1242,116 +1221,104 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D7">
-        <v>-0.0901</v>
-      </c>
       <c r="G7">
-        <v>0.1095238095238095</v>
+        <v>-0</v>
       </c>
       <c r="H7">
-        <v>0.1095238095238095</v>
+        <v>-0</v>
       </c>
       <c r="I7">
-        <v>0.12</v>
+        <v>-0</v>
       </c>
       <c r="J7">
-        <v>0.1155</v>
+        <v>-0</v>
       </c>
       <c r="K7">
-        <v>0.789</v>
+        <v>-2.86</v>
       </c>
       <c r="L7">
-        <v>0.07514285714285715</v>
+        <v>16.53179190751445</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>12.86</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.3289002557544757</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>-4.496503496503497</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>4.89</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.1250639386189258</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>-1.70979020979021</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>7.97</v>
+      </c>
+      <c r="T7">
+        <v>0.619751166407465</v>
       </c>
       <c r="U7">
-        <v>4.57</v>
+        <v>4.5</v>
       </c>
       <c r="V7">
-        <v>0.05966057441253265</v>
+        <v>0.1150895140664962</v>
       </c>
       <c r="W7">
-        <v>0.01553149606299213</v>
+        <v>-0.03955739972337483</v>
       </c>
       <c r="X7">
-        <v>0.05045015326463245</v>
+        <v>0.03951904454695289</v>
       </c>
       <c r="Y7">
-        <v>-0.03491865720164032</v>
+        <v>-0.07907644427032771</v>
       </c>
       <c r="Z7">
-        <v>0.2218934911242604</v>
+        <v>-0.003250779811342027</v>
       </c>
       <c r="AA7">
-        <v>0.02562869822485207</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.05045015326463245</v>
+        <v>0.03933994887957368</v>
       </c>
       <c r="AC7">
-        <v>-0.02482145503978038</v>
+        <v>-0.03933994887957368</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AG7">
-        <v>-4.57</v>
+        <v>-3.683</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.02046747000025052</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.01430397254757778</v>
       </c>
       <c r="AJ7">
-        <v>-0.06344578647785645</v>
+        <v>-0.1039896095095575</v>
       </c>
       <c r="AK7">
-        <v>-0.08716383749761587</v>
+        <v>-0.06999638899975293</v>
       </c>
       <c r="AL7">
-        <v>0.253</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0.253</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>4.980237154150197</v>
-      </c>
-      <c r="AP7">
-        <v>-3.360294117647059</v>
-      </c>
-      <c r="AQ7">
-        <v>4.980237154150197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1362,7 +1329,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Al Salam Group Holding Company - K.S.C (Public) (KWSE:ALSALAM)</t>
+          <t>Asiya Capital Investments Company K.S.C.P. (KWSE:ASIYA)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1371,112 +1338,106 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.162</v>
-      </c>
-      <c r="E8">
-        <v>-0.407</v>
+        <v>-0.143</v>
       </c>
       <c r="G8">
-        <v>0.761487964989059</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.761487964989059</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5382932166301969</v>
+        <v>-0.140855106888361</v>
       </c>
       <c r="J8">
-        <v>0.5382932166301969</v>
+        <v>-0.139357090980538</v>
       </c>
       <c r="K8">
-        <v>0.664</v>
+        <v>6.69</v>
       </c>
       <c r="L8">
-        <v>0.1452954048140044</v>
+        <v>1.589073634204276</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>0.033</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.000352187833511206</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0.004932735426008968</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>0.033</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.000352187833511206</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0.004932735426008968</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>0.187</v>
+        <v>39.6</v>
       </c>
       <c r="V8">
-        <v>0.007164750957854406</v>
+        <v>0.4226254002134472</v>
       </c>
       <c r="W8">
-        <v>0.006047358834244081</v>
+        <v>0.02874946282767512</v>
       </c>
       <c r="X8">
-        <v>0.05065369832421052</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Y8">
-        <v>-0.04460633948996644</v>
+        <v>-0.01024223141073898</v>
       </c>
       <c r="Z8">
-        <v>0.0465083145061163</v>
+        <v>0.0243212016175621</v>
       </c>
       <c r="AA8">
-        <v>0.02503511021554619</v>
+        <v>-0.00338933190657461</v>
       </c>
       <c r="AB8">
-        <v>0.05051637961660792</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AC8">
-        <v>-0.02548126940106173</v>
+        <v>-0.04238102614498871</v>
       </c>
       <c r="AD8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.01300000000000001</v>
+        <v>-39.6</v>
       </c>
       <c r="AH8">
-        <v>0.007604562737642586</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.001821493624772314</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.0004978363267338111</v>
+        <v>-0.7319778188539742</v>
       </c>
       <c r="AK8">
-        <v>0.0001185990712780419</v>
+        <v>-0.2004048582995951</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0.05970149253731343</v>
-      </c>
-      <c r="AP8">
-        <v>0.003880597014925376</v>
       </c>
     </row>
     <row r="9">
@@ -1487,7 +1448,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kuwait Financial Centre - K.P.S.C (KWSE:MARKAZ)</t>
+          <t>Bayan Investment Company K.S.C.P. (KWSE:BAYANINV)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1495,122 +1456,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D9">
-        <v>-0.0411</v>
-      </c>
-      <c r="E9">
-        <v>-0.25</v>
-      </c>
       <c r="G9">
-        <v>0.4553571428571428</v>
+        <v>-0.04980079681274901</v>
       </c>
       <c r="H9">
-        <v>0.4553571428571428</v>
+        <v>-0.04980079681274901</v>
       </c>
       <c r="I9">
-        <v>0.2477678571428572</v>
+        <v>-0.04661354581673308</v>
       </c>
       <c r="J9">
-        <v>0.2450193069591181</v>
+        <v>-0.04661354581673308</v>
       </c>
       <c r="K9">
-        <v>5.24</v>
+        <v>-3.95</v>
       </c>
       <c r="L9">
-        <v>0.1169642857142857</v>
+        <v>-1.573705179282869</v>
       </c>
       <c r="M9">
-        <v>8.635</v>
+        <v>0.723</v>
       </c>
       <c r="N9">
-        <v>0.05164473684210526</v>
+        <v>0.01454728370221328</v>
       </c>
       <c r="O9">
-        <v>1.647900763358779</v>
+        <v>-0.1830379746835443</v>
       </c>
       <c r="P9">
-        <v>7.78</v>
+        <v>0.723</v>
       </c>
       <c r="Q9">
-        <v>0.0465311004784689</v>
+        <v>0.01454728370221328</v>
       </c>
       <c r="R9">
-        <v>1.484732824427481</v>
+        <v>-0.1830379746835443</v>
       </c>
       <c r="S9">
-        <v>0.8549999999999995</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.09901563404748114</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>31.6</v>
+        <v>0.987</v>
       </c>
       <c r="V9">
-        <v>0.1889952153110048</v>
+        <v>0.01985915492957746</v>
       </c>
       <c r="W9">
-        <v>0.01705729166666667</v>
+        <v>-0.03330522765598651</v>
       </c>
       <c r="X9">
-        <v>0.08637007375005941</v>
+        <v>0.04645643708567736</v>
       </c>
       <c r="Y9">
-        <v>-0.06931278208339274</v>
+        <v>-0.07976166474166388</v>
       </c>
       <c r="Z9">
-        <v>0.1038479369494668</v>
+        <v>0.01881841355525566</v>
       </c>
       <c r="AA9">
-        <v>0.02544474954049256</v>
+        <v>-0.0008771929824561405</v>
       </c>
       <c r="AB9">
-        <v>0.05731350142351207</v>
+        <v>0.04287556006160741</v>
       </c>
       <c r="AC9">
-        <v>-0.03186875188301951</v>
+        <v>-0.04375275304406355</v>
       </c>
       <c r="AD9">
-        <v>226.1</v>
+        <v>14.7</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>226.1</v>
+        <v>14.7</v>
       </c>
       <c r="AG9">
-        <v>194.5</v>
+        <v>13.713</v>
       </c>
       <c r="AH9">
-        <v>0.5748792270531401</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="AI9">
-        <v>0.3727332673920211</v>
+        <v>0.08797127468581688</v>
       </c>
       <c r="AJ9">
-        <v>0.5377384572850429</v>
+        <v>0.2162490341097251</v>
       </c>
       <c r="AK9">
-        <v>0.3382608695652174</v>
+        <v>0.08255223853641798</v>
       </c>
       <c r="AL9">
-        <v>8</v>
+        <v>0.625</v>
       </c>
       <c r="AM9">
-        <v>8</v>
+        <v>0.625</v>
       </c>
       <c r="AN9">
-        <v>16.625</v>
+        <v>-565.3846153846154</v>
       </c>
       <c r="AO9">
-        <v>1.3875</v>
+        <v>-0.1872</v>
       </c>
       <c r="AP9">
-        <v>14.3014705882353</v>
+        <v>-527.4230769230769</v>
       </c>
       <c r="AQ9">
-        <v>1.3875</v>
+        <v>-0.1872</v>
       </c>
     </row>
     <row r="10">
@@ -1621,7 +1576,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Asiya Capital Investments Company K.S.C.P. (KWSE:ASIYA)</t>
+          <t>First Investment Company K.S.C.P. (KWSE:ALOLA)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1630,46 +1585,43 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.31</v>
-      </c>
-      <c r="E10">
-        <v>-0.574</v>
+        <v>-0.436</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-1.702355460385439</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-1.702355460385439</v>
       </c>
       <c r="I10">
-        <v>0.09463153087696065</v>
+        <v>-0.3254817987152034</v>
       </c>
       <c r="J10">
-        <v>0.09033009765528062</v>
+        <v>-0.3254817987152034</v>
       </c>
       <c r="K10">
-        <v>0.062</v>
+        <v>-149.1</v>
       </c>
       <c r="L10">
-        <v>0.01479713603818616</v>
+        <v>-31.9271948608137</v>
       </c>
       <c r="M10">
-        <v>0.128</v>
+        <v>0.003</v>
       </c>
       <c r="N10">
-        <v>0.001472957422324511</v>
+        <v>3.267973856209151e-05</v>
       </c>
       <c r="O10">
-        <v>2.064516129032258</v>
+        <v>-2.012072434607646e-05</v>
       </c>
       <c r="P10">
-        <v>0.128</v>
+        <v>0.003</v>
       </c>
       <c r="Q10">
-        <v>0.001472957422324511</v>
+        <v>3.267973856209151e-05</v>
       </c>
       <c r="R10">
-        <v>2.064516129032258</v>
+        <v>-2.012072434607646e-05</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1678,67 +1630,73 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>59.6</v>
+        <v>40.1</v>
       </c>
       <c r="V10">
-        <v>0.6858457997698504</v>
+        <v>0.4368191721132898</v>
       </c>
       <c r="W10">
-        <v>0.0002658662092624357</v>
+        <v>-0.5118434603501545</v>
       </c>
       <c r="X10">
-        <v>0.0508910713555675</v>
+        <v>0.04149349440109529</v>
       </c>
       <c r="Y10">
-        <v>-0.05062520514630506</v>
+        <v>-0.5533369547512498</v>
       </c>
       <c r="Z10">
-        <v>0.02596960375560941</v>
+        <v>0.01616476289373486</v>
       </c>
       <c r="AA10">
-        <v>0.00234583684331314</v>
+        <v>-0.005261336102457598</v>
       </c>
       <c r="AB10">
-        <v>0.05050907773923987</v>
+        <v>0.03969985562742606</v>
       </c>
       <c r="AC10">
-        <v>-0.04816324089592673</v>
+        <v>-0.04496119172988366</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AE10">
-        <v>1.442469428127675</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1.442469428127675</v>
+        <v>9.1</v>
       </c>
       <c r="AG10">
-        <v>-58.15753057187233</v>
+        <v>-31</v>
       </c>
       <c r="AH10">
-        <v>0.01632815380264208</v>
+        <v>0.09018830525272548</v>
       </c>
       <c r="AI10">
-        <v>0.006160648393479316</v>
+        <v>0.05436081242532855</v>
       </c>
       <c r="AJ10">
-        <v>-2.023400623850321</v>
+        <v>-0.5098684210526316</v>
       </c>
       <c r="AK10">
-        <v>-0.3331998840306323</v>
+        <v>-0.2435192458758837</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.928</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.928</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>-9.732620320855615</v>
+      </c>
+      <c r="AO10">
+        <v>-1.637931034482758</v>
       </c>
       <c r="AP10">
-        <v>-112.4903879533314</v>
+        <v>33.15508021390374</v>
+      </c>
+      <c r="AQ10">
+        <v>-1.637931034482758</v>
       </c>
     </row>
     <row r="11">
@@ -1749,7 +1707,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Osoul Investment Company K.S.C.P (KWSE:OSOUL)</t>
+          <t>Gulf Investment House K.S.C.P. (KWSE:GIH)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1757,38 +1715,32 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D11">
-        <v>0.157</v>
-      </c>
-      <c r="E11">
-        <v>0.107</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.01476997578692494</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01476997578692494</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-0.07130750605326876</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0.07130750605326876</v>
       </c>
       <c r="K11">
-        <v>4.62</v>
+        <v>-2.04</v>
       </c>
       <c r="L11">
-        <v>0.5968992248062015</v>
+        <v>-0.2469733656174334</v>
       </c>
       <c r="M11">
-        <v>0.592</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.01553805774278215</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>0.1281385281385281</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1797,70 +1749,73 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.592</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>19.9</v>
+        <v>37.3</v>
       </c>
       <c r="V11">
-        <v>0.5223097112860892</v>
+        <v>0.335431654676259</v>
       </c>
       <c r="W11">
-        <v>0.06609442060085836</v>
+        <v>-0.01705685618729097</v>
       </c>
       <c r="X11">
-        <v>0.05102044805636208</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Y11">
-        <v>0.01507397254449629</v>
+        <v>-0.05604855042570507</v>
       </c>
       <c r="Z11">
-        <v>0.1143448072093367</v>
+        <v>0.1117726657645467</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>-0.0079702300405954</v>
       </c>
       <c r="AB11">
-        <v>0.05070108882151987</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AC11">
-        <v>-0.05070108882151987</v>
+        <v>-0.0469619242790095</v>
       </c>
       <c r="AD11">
-        <v>0.8179999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.8179999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>-19.082</v>
+        <v>-37.3</v>
       </c>
       <c r="AH11">
-        <v>0.02101855182691813</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.01118739571651303</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>-1.003365232937217</v>
+        <v>-0.5047361299052773</v>
       </c>
       <c r="AK11">
-        <v>-0.3585628922545003</v>
+        <v>-0.3589990375360924</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>-0</v>
+      </c>
+      <c r="AP11">
+        <v>114.4171779141104</v>
       </c>
     </row>
     <row r="12">
@@ -1871,7 +1826,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bayan Investment Company K.S.C.P. (KWSE:BAYANINV)</t>
+          <t>Unicap Investment and Finance Company K.S.C.P. (KWSE:UNICAP)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1880,118 +1835,103 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.398</v>
+        <v>0.0341</v>
       </c>
       <c r="G12">
-        <v>-0.3233766233766234</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-0.3233766233766234</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.1978354978354978</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-0.1978354978354978</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-1.13</v>
+        <v>-15.4</v>
       </c>
       <c r="L12">
-        <v>-0.4891774891774891</v>
+        <v>-1.439252336448598</v>
       </c>
       <c r="M12">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.0006593406593406593</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>-0.02654867256637168</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.0006593406593406593</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>-0.02654867256637168</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>1.51</v>
+        <v>25.9</v>
       </c>
       <c r="V12">
-        <v>0.03318681318681319</v>
+        <v>0.7896341463414634</v>
       </c>
       <c r="W12">
-        <v>-0.00930807248764415</v>
+        <v>-0.2072678331090175</v>
       </c>
       <c r="X12">
-        <v>0.0582146144219219</v>
+        <v>0.1195530457246233</v>
       </c>
       <c r="Y12">
-        <v>-0.06752268690956605</v>
+        <v>-0.3268208788336409</v>
       </c>
       <c r="Z12">
-        <v>0.01712252612853013</v>
+        <v>0.07431071602194596</v>
       </c>
       <c r="AA12">
-        <v>-0.003387443480839078</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.05241999303142652</v>
+        <v>0.04924241910605989</v>
       </c>
       <c r="AC12">
-        <v>-0.0558074365122656</v>
+        <v>-0.04924241910605989</v>
       </c>
       <c r="AD12">
-        <v>13.3</v>
+        <v>104.7</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>13.3</v>
+        <v>104.7</v>
       </c>
       <c r="AG12">
-        <v>11.79</v>
+        <v>78.80000000000001</v>
       </c>
       <c r="AH12">
-        <v>0.2261904761904762</v>
+        <v>0.7614545454545455</v>
       </c>
       <c r="AI12">
-        <v>0.07696759259259259</v>
+        <v>0.6427255985267035</v>
       </c>
       <c r="AJ12">
-        <v>0.2057950776749869</v>
+        <v>0.7060931899641577</v>
       </c>
       <c r="AK12">
-        <v>0.06883063809913013</v>
+        <v>0.5751824817518248</v>
       </c>
       <c r="AL12">
-        <v>0.841</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>0.841</v>
-      </c>
-      <c r="AN12">
-        <v>-168.3544303797468</v>
-      </c>
-      <c r="AO12">
-        <v>-0.5434007134363853</v>
-      </c>
-      <c r="AP12">
-        <v>-149.2405063291139</v>
-      </c>
-      <c r="AQ12">
-        <v>-0.5434007134363853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2002,7 +1942,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Coast Investment &amp; Development Company K.S.C.P. (KWSE:COAST)</t>
+          <t>Gulf North Africa Holding Company - KPSC (KWSE:GNAHC)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2010,26 +1950,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="E13">
-        <v>-0.799</v>
+      <c r="D13">
+        <v>0.282</v>
       </c>
       <c r="G13">
-        <v>-5.213114754098361</v>
+        <v>0.3630041724617524</v>
       </c>
       <c r="H13">
-        <v>-5.213114754098361</v>
+        <v>0.3630041724617524</v>
       </c>
       <c r="I13">
-        <v>32.1311475409836</v>
+        <v>-0.04756606397774687</v>
       </c>
       <c r="J13">
-        <v>16.0655737704918</v>
+        <v>-0.04756606397774687</v>
       </c>
       <c r="K13">
-        <v>0.02</v>
+        <v>-0.472</v>
       </c>
       <c r="L13">
-        <v>-0.1639344262295082</v>
+        <v>-0.06564673157162726</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -2038,7 +1978,7 @@
         <v>-0</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -2047,79 +1987,79 @@
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>15.1</v>
+        <v>4.44</v>
       </c>
       <c r="V13">
-        <v>0.1958495460440986</v>
+        <v>0.137888198757764</v>
       </c>
       <c r="W13">
-        <v>0.0001055408970976253</v>
+        <v>-0.01282608695652174</v>
       </c>
       <c r="X13">
-        <v>0.05045015326463245</v>
+        <v>0.04341225269117674</v>
       </c>
       <c r="Y13">
-        <v>-0.05034461236753483</v>
+        <v>-0.05623833964769848</v>
       </c>
       <c r="Z13">
-        <v>-0.0007023603914795625</v>
+        <v>0.1709462672372801</v>
       </c>
       <c r="AA13">
-        <v>-0.01128382268278641</v>
+        <v>-0.008131241084165479</v>
       </c>
       <c r="AB13">
-        <v>0.05045015326463245</v>
+        <v>0.04152776126038447</v>
       </c>
       <c r="AC13">
-        <v>-0.06173397594741886</v>
+        <v>-0.04965900234454995</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="AG13">
-        <v>-15.1</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.1490486257928118</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>0.09120310478654592</v>
       </c>
       <c r="AJ13">
-        <v>-0.2435483870967742</v>
+        <v>0.03592814371257482</v>
       </c>
       <c r="AK13">
-        <v>-0.09520807061790669</v>
+        <v>0.02090592334494772</v>
       </c>
       <c r="AL13">
-        <v>0.013</v>
+        <v>0.407</v>
       </c>
       <c r="AM13">
-        <v>0.013</v>
+        <v>0.407</v>
       </c>
       <c r="AN13">
-        <v>-0</v>
+        <v>4.548387096774193</v>
       </c>
       <c r="AO13">
-        <v>-301.5384615384615</v>
+        <v>-0.8402948402948404</v>
       </c>
       <c r="AP13">
-        <v>3.891752577319588</v>
+        <v>0.9677419354838704</v>
       </c>
       <c r="AQ13">
-        <v>-301.5384615384615</v>
+        <v>-0.8402948402948404</v>
       </c>
     </row>
     <row r="14">
@@ -2130,7 +2070,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>First Investment Company K.S.C.P. (KWSE:ALOLA)</t>
+          <t>Ekttitab Holding Company K.S.C. - Public (KWSE:EKTTITAB)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2138,119 +2078,107 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D14">
-        <v>-0.115</v>
-      </c>
       <c r="G14">
-        <v>0.5108359133126935</v>
+        <v>-2.802303262955854</v>
       </c>
       <c r="H14">
-        <v>0.5108359133126935</v>
+        <v>-2.802303262955854</v>
       </c>
       <c r="I14">
-        <v>-0.773625284052806</v>
+        <v>-0.9558541266794626</v>
       </c>
       <c r="J14">
-        <v>-0.773625284052806</v>
+        <v>-0.9558541266794626</v>
       </c>
       <c r="K14">
-        <v>-7.12</v>
+        <v>-0.039</v>
       </c>
       <c r="L14">
-        <v>-1.102167182662539</v>
+        <v>-0.07485604606525911</v>
       </c>
       <c r="M14">
-        <v>0.013</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.0001763907734056988</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>-0.001825842696629213</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.013</v>
+        <v>-0</v>
       </c>
       <c r="Q14">
-        <v>0.0001763907734056988</v>
+        <v>-0</v>
       </c>
       <c r="R14">
-        <v>-0.001825842696629213</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
-        <v>25.8</v>
+        <v>0.482</v>
       </c>
       <c r="V14">
-        <v>0.3500678426051561</v>
+        <v>0.03050632911392405</v>
       </c>
       <c r="W14">
-        <v>-0.02284980744544287</v>
+        <v>-0.0008705357142857143</v>
       </c>
       <c r="X14">
-        <v>0.05915170212036641</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Y14">
-        <v>-0.08200150956580929</v>
+        <v>-0.03986222995269981</v>
       </c>
       <c r="Z14">
-        <v>0.02127497733602807</v>
+        <v>0.01182022369943508</v>
       </c>
       <c r="AA14">
-        <v>-0.01645886038480173</v>
+        <v>-0.01129840960137941</v>
       </c>
       <c r="AB14">
-        <v>0.05134062762724206</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AC14">
-        <v>-0.06779948801204379</v>
+        <v>-0.05029010383979351</v>
       </c>
       <c r="AD14">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>0.7430966749056352</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>24.14309667490564</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>-1.656903325094365</v>
+        <v>-0.482</v>
       </c>
       <c r="AH14">
-        <v>0.2467531946083402</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>0.07310704422891336</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>-0.02299877991879137</v>
+        <v>-0.0314662488575532</v>
       </c>
       <c r="AK14">
-        <v>-0.005442407278045991</v>
+        <v>-0.01061253247611079</v>
       </c>
       <c r="AL14">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>-6.15951566201632</v>
-      </c>
-      <c r="AO14">
-        <v>-4.652173913043478</v>
+        <v>-0</v>
       </c>
       <c r="AP14">
-        <v>0.4361419650156266</v>
-      </c>
-      <c r="AQ14">
-        <v>-4.652173913043478</v>
+        <v>1.113163972286374</v>
       </c>
     </row>
     <row r="15">
@@ -2261,7 +2189,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gulf North Africa Holding Company - KPSC (KWSE:GNAHC)</t>
+          <t>Tamdeen Investment Company - KSCP (KWSE:TAMINV)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2270,115 +2198,118 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.111</v>
+        <v>-0.321</v>
       </c>
       <c r="G15">
-        <v>-0.3787878787878788</v>
+        <v>5.646606914212549</v>
       </c>
       <c r="H15">
-        <v>-0.3787878787878788</v>
+        <v>5.646606914212549</v>
       </c>
       <c r="I15">
-        <v>-0.2155844155844156</v>
+        <v>-0.8527528809218951</v>
       </c>
       <c r="J15">
-        <v>-0.2155844155844156</v>
+        <v>-0.8527528809218951</v>
       </c>
       <c r="K15">
-        <v>-7.22</v>
+        <v>-20</v>
       </c>
       <c r="L15">
-        <v>-1.562770562770563</v>
+        <v>-2.560819462227913</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>13.152</v>
       </c>
       <c r="N15">
-        <v>-0</v>
+        <v>0.03776055124892334</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>-0.6576</v>
       </c>
       <c r="P15">
-        <v>-0</v>
+        <v>13.1</v>
       </c>
       <c r="Q15">
-        <v>-0</v>
+        <v>0.03761125466551823</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>-0.655</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.0519999999999996</v>
+      </c>
+      <c r="T15">
+        <v>0.003953771289537683</v>
       </c>
       <c r="U15">
-        <v>4.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="V15">
-        <v>0.1465798045602606</v>
+        <v>0.24519092736147</v>
       </c>
       <c r="W15">
-        <v>-0.1622471910112359</v>
+        <v>-0.02463661000246366</v>
       </c>
       <c r="X15">
-        <v>0.05889482008819566</v>
+        <v>0.05847628250600846</v>
       </c>
       <c r="Y15">
-        <v>-0.2211420110994316</v>
+        <v>-0.08311289250847212</v>
       </c>
       <c r="Z15">
-        <v>0.083984730049082</v>
+        <v>0.00790405829369497</v>
       </c>
       <c r="AA15">
-        <v>-0.01810579894564625</v>
+        <v>-0.006740208480922984</v>
       </c>
       <c r="AB15">
-        <v>0.05132068092601139</v>
+        <v>0.04640475628720701</v>
       </c>
       <c r="AC15">
-        <v>-0.06942647987165765</v>
+        <v>-0.05314496476813</v>
       </c>
       <c r="AD15">
-        <v>9.76</v>
+        <v>268.9</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>9.76</v>
+        <v>268.9</v>
       </c>
       <c r="AG15">
-        <v>5.26</v>
+        <v>183.5</v>
       </c>
       <c r="AH15">
-        <v>0.2412259021255561</v>
+        <v>0.4356772521062864</v>
       </c>
       <c r="AI15">
-        <v>0.1466346153846154</v>
+        <v>0.2568045076878999</v>
       </c>
       <c r="AJ15">
-        <v>0.146273637374861</v>
+        <v>0.3450545317788642</v>
       </c>
       <c r="AK15">
-        <v>0.08475668707702223</v>
+        <v>0.1908079442653634</v>
       </c>
       <c r="AL15">
-        <v>0.582</v>
+        <v>9.57</v>
       </c>
       <c r="AM15">
-        <v>0.582</v>
+        <v>9.57</v>
       </c>
       <c r="AN15">
-        <v>37.53846153846153</v>
+        <v>-58.45652173913044</v>
       </c>
       <c r="AO15">
-        <v>-1.711340206185567</v>
+        <v>-0.6959247648902821</v>
       </c>
       <c r="AP15">
-        <v>20.23076923076923</v>
+        <v>-39.89130434782609</v>
       </c>
       <c r="AQ15">
-        <v>-1.711340206185567</v>
+        <v>-0.6959247648902821</v>
       </c>
     </row>
     <row r="16">
@@ -2389,7 +2320,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ekttitab Holding Company K.S.C. - Public (KWSE:EKTTITAB)</t>
+          <t>Warba Capital Holding Company K.S.C.P. (KWSE:WARBACAP)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2397,23 +2328,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D16">
+        <v>0.473</v>
+      </c>
       <c r="G16">
-        <v>10.93567251461988</v>
+        <v>-0.4099378881987578</v>
       </c>
       <c r="H16">
-        <v>10.93567251461988</v>
+        <v>-0.4099378881987578</v>
       </c>
       <c r="I16">
-        <v>10.76023391812866</v>
+        <v>-0.7763975155279502</v>
       </c>
       <c r="J16">
-        <v>10.76023391812866</v>
+        <v>-0.7763975155279502</v>
       </c>
       <c r="K16">
-        <v>-1.87</v>
+        <v>-3.11</v>
       </c>
       <c r="L16">
-        <v>10.93567251461988</v>
+        <v>-1.93167701863354</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2437,67 +2371,73 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.723</v>
+        <v>1.66</v>
       </c>
       <c r="V16">
-        <v>0.04575949367088607</v>
+        <v>0.10375</v>
       </c>
       <c r="W16">
-        <v>-0.03021001615508885</v>
+        <v>-0.1054237288135593</v>
       </c>
       <c r="X16">
-        <v>0.05045015326463245</v>
+        <v>0.04260387441560616</v>
       </c>
       <c r="Y16">
-        <v>-0.0806601694197213</v>
+        <v>-0.1480276032291655</v>
       </c>
       <c r="Z16">
-        <v>-0.002787740462993153</v>
+        <v>0.05895276455510802</v>
       </c>
       <c r="AA16">
-        <v>-0.02999673948483861</v>
+        <v>-0.04577077993409007</v>
       </c>
       <c r="AB16">
-        <v>0.05045015326463245</v>
+        <v>0.03997480804411163</v>
       </c>
       <c r="AC16">
-        <v>-0.08044689274947106</v>
+        <v>-0.0857455879782017</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AG16">
-        <v>-0.723</v>
+        <v>0.6300000000000001</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.1252050300710771</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.07926618206992039</v>
       </c>
       <c r="AJ16">
-        <v>-0.04795383697021954</v>
+        <v>0.03788334335538185</v>
       </c>
       <c r="AK16">
-        <v>-0.016440412033563</v>
+        <v>0.02313624678663239</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AN16">
-        <v>-0</v>
+        <v>-3.46969696969697</v>
+      </c>
+      <c r="AO16">
+        <v>-14.20454545454546</v>
       </c>
       <c r="AP16">
-        <v>0.4016666666666666</v>
+        <v>-0.9545454545454547</v>
+      </c>
+      <c r="AQ16">
+        <v>-14.20454545454546</v>
       </c>
     </row>
     <row r="17">
@@ -2508,7 +2448,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Unicap Investment and Finance Company K.S.C.P. (KWSE:UNICAP)</t>
+          <t>Coast Investment &amp; Development Company K.S.C.P. (KWSE:COAST)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2516,101 +2456,95 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D17">
-        <v>-0.11</v>
-      </c>
       <c r="G17">
-        <v>0</v>
+        <v>-0.5373831775700934</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-0.5373831775700934</v>
       </c>
       <c r="I17">
-        <v>-0.4835356020100577</v>
+        <v>2.093457943925234</v>
       </c>
       <c r="J17">
-        <v>-0.4835356020100577</v>
+        <v>2.093457943925234</v>
       </c>
       <c r="K17">
-        <v>-8.539999999999999</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="L17">
-        <v>-0.9552572706935123</v>
+        <v>1.974299065420561</v>
       </c>
       <c r="M17">
-        <v>2.34</v>
+        <v>-0</v>
       </c>
       <c r="N17">
-        <v>0.05429234338747099</v>
+        <v>-0</v>
       </c>
       <c r="O17">
-        <v>-0.2740046838407494</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>2.34</v>
+        <v>-0</v>
       </c>
       <c r="Q17">
-        <v>0.05429234338747099</v>
+        <v>-0</v>
       </c>
       <c r="R17">
-        <v>-0.2740046838407494</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
-        <v>3.51</v>
+        <v>14.5</v>
       </c>
       <c r="V17">
-        <v>0.08143851508120649</v>
+        <v>0.1555793991416309</v>
       </c>
       <c r="W17">
-        <v>-0.09446902654867255</v>
+        <v>-0.04870317002881844</v>
       </c>
       <c r="X17">
-        <v>0.1147391396788868</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Y17">
-        <v>-0.2092081662275593</v>
+        <v>-0.08769486426723254</v>
       </c>
       <c r="Z17">
-        <v>0.05963417379669565</v>
+        <v>-0.02702020202020202</v>
       </c>
       <c r="AA17">
-        <v>-0.02883524612715764</v>
+        <v>-0.05656565656565657</v>
       </c>
       <c r="AB17">
-        <v>0.0566127039542159</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AC17">
-        <v>-0.08544795008137354</v>
+        <v>-0.09555735080407067</v>
       </c>
       <c r="AD17">
-        <v>73.2</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>31.11404140984958</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>104.3140414098496</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>100.8040414098496</v>
+        <v>-14.5</v>
       </c>
       <c r="AH17">
-        <v>0.7076262234737143</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>0.5840192662708389</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0.7004948604796446</v>
+        <v>-0.1842439644218551</v>
       </c>
       <c r="AK17">
-        <v>0.5756808386501316</v>
+        <v>-0.09366925064599482</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2619,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>38.52631578947368</v>
+        <v>-0</v>
       </c>
       <c r="AP17">
-        <v>53.05475863676293</v>
+        <v>1.631046119235096</v>
       </c>
     </row>
     <row r="18">
@@ -2633,7 +2567,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Warba Capital Holding Co. (KWSE:WARBACAP)</t>
+          <t>Kuwait and Middle East Financial Investment Company K.S.C.P. (KWSE:KMEFIC)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2642,25 +2576,25 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.111</v>
+        <v>-0.0616</v>
       </c>
       <c r="G18">
-        <v>-0.5509316770186335</v>
+        <v>0.4420062695924765</v>
       </c>
       <c r="H18">
-        <v>-0.5509316770186335</v>
+        <v>0.4420062695924765</v>
       </c>
       <c r="I18">
-        <v>-0.857142857142857</v>
+        <v>-0.5188087774294671</v>
       </c>
       <c r="J18">
-        <v>-0.857142857142857</v>
+        <v>-0.5132642561439613</v>
       </c>
       <c r="K18">
-        <v>-1.85</v>
+        <v>26.2</v>
       </c>
       <c r="L18">
-        <v>-1.149068322981367</v>
+        <v>4.106583072100314</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -2669,7 +2603,7 @@
         <v>-0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P18">
         <v>-0</v>
@@ -2678,320 +2612,73 @@
         <v>-0</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>3.12</v>
+        <v>24.5</v>
       </c>
       <c r="V18">
-        <v>0.1464788732394366</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="W18">
-        <v>-0.07905982905982907</v>
+        <v>0.5137254901960784</v>
       </c>
       <c r="X18">
-        <v>0.05359277431124478</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="Y18">
-        <v>-0.1326526033710738</v>
+        <v>0.4747337959576643</v>
       </c>
       <c r="Z18">
-        <v>0.05216602404173282</v>
+        <v>0.1374111565797975</v>
       </c>
       <c r="AA18">
-        <v>-0.04471373489291385</v>
+        <v>-0.07052823506781118</v>
       </c>
       <c r="AB18">
-        <v>0.05171319644337426</v>
+        <v>0.0389916942384141</v>
       </c>
       <c r="AC18">
-        <v>-0.0964269313362881</v>
+        <v>-0.1095199293062253</v>
       </c>
       <c r="AD18">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>-0.6000000000000001</v>
+        <v>-24.5</v>
       </c>
       <c r="AH18">
-        <v>0.1057934508816121</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>0.07894736842105264</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>-0.02898550724637682</v>
+        <v>-0.3043478260869565</v>
       </c>
       <c r="AK18">
-        <v>-0.02083333333333334</v>
+        <v>-0.4209621993127148</v>
       </c>
       <c r="AL18">
-        <v>0.349</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>-0.393</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>-3.173803526448363</v>
-      </c>
-      <c r="AO18">
-        <v>-3.954154727793696</v>
+        <v>-0</v>
       </c>
       <c r="AP18">
-        <v>0.7556675062972293</v>
-      </c>
-      <c r="AQ18">
-        <v>3.511450381679389</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Kuwait</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Gulf Investment House K.S.C.P. (KWSE:GIH)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G19">
-        <v>1.09254498714653</v>
-      </c>
-      <c r="H19">
-        <v>1.09254498714653</v>
-      </c>
-      <c r="I19">
-        <v>1.910025706940874</v>
-      </c>
-      <c r="J19">
-        <v>1.909098509995757</v>
-      </c>
-      <c r="K19">
-        <v>41.1</v>
-      </c>
-      <c r="L19">
-        <v>-10.56555269922879</v>
-      </c>
-      <c r="M19">
-        <v>0.007</v>
-      </c>
-      <c r="N19">
-        <v>8.101851851851852e-05</v>
-      </c>
-      <c r="O19">
-        <v>0.000170316301703163</v>
-      </c>
-      <c r="P19">
-        <v>0.007</v>
-      </c>
-      <c r="Q19">
-        <v>8.101851851851852e-05</v>
-      </c>
-      <c r="R19">
-        <v>0.000170316301703163</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>45.7</v>
-      </c>
-      <c r="V19">
-        <v>0.5289351851851852</v>
-      </c>
-      <c r="W19">
-        <v>1.920560747663552</v>
-      </c>
-      <c r="X19">
-        <v>0.05045015326463245</v>
-      </c>
-      <c r="Y19">
-        <v>1.870110594398919</v>
-      </c>
-      <c r="Z19">
-        <v>-0.02892623438429506</v>
-      </c>
-      <c r="AA19">
-        <v>-0.05522303096284573</v>
-      </c>
-      <c r="AB19">
-        <v>0.05045015326463245</v>
-      </c>
-      <c r="AC19">
-        <v>-0.1056731842274782</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>-45.7</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>-1.122850122850123</v>
-      </c>
-      <c r="AK19">
-        <v>-0.4489194499017682</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>-0</v>
-      </c>
-      <c r="AP19">
-        <v>6.192411924119241</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Kuwait</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Al Madina for Finance and Investment Company - K.S.C.P. (KWSE:ALMADINA)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G20">
-        <v>2.151960784313725</v>
-      </c>
-      <c r="H20">
-        <v>2.151960784313725</v>
-      </c>
-      <c r="I20">
-        <v>1.686274509803922</v>
-      </c>
-      <c r="J20">
-        <v>1.686274509803922</v>
-      </c>
-      <c r="K20">
-        <v>-7.02</v>
-      </c>
-      <c r="L20">
-        <v>1.720588235294118</v>
-      </c>
-      <c r="M20">
-        <v>-0</v>
-      </c>
-      <c r="N20">
-        <v>-0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>-0</v>
-      </c>
-      <c r="Q20">
-        <v>-0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>1.03</v>
-      </c>
-      <c r="V20">
-        <v>0.05336787564766839</v>
-      </c>
-      <c r="W20">
-        <v>-0.1086687306501548</v>
-      </c>
-      <c r="X20">
-        <v>0.06185969756407454</v>
-      </c>
-      <c r="Y20">
-        <v>-0.1705284282142293</v>
-      </c>
-      <c r="Z20">
-        <v>-0.0570390046134489</v>
-      </c>
-      <c r="AA20">
-        <v>-0.09618341954424717</v>
-      </c>
-      <c r="AB20">
-        <v>0.05306688629148183</v>
-      </c>
-      <c r="AC20">
-        <v>-0.149250305835729</v>
-      </c>
-      <c r="AD20">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="AG20">
-        <v>7.259999999999999</v>
-      </c>
-      <c r="AH20">
-        <v>0.3004711852120333</v>
-      </c>
-      <c r="AI20">
-        <v>0.09651880312027011</v>
-      </c>
-      <c r="AJ20">
-        <v>0.2733433734939759</v>
-      </c>
-      <c r="AK20">
-        <v>0.08555267499410793</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>-1.211988304093567</v>
-      </c>
-      <c r="AP20">
-        <v>-1.06140350877193</v>
+        <v>7.585139318885449</v>
       </c>
     </row>
   </sheetData>
